--- a/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
+++ b/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\Project-digitale-besturing\Documentatie\Notules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB0ADFC-E51A-48ED-BA06-6D9DB590AD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1872969-B249-45FD-A517-2A278ECA7889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,6 +795,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,18 +871,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,7 +1176,7 @@
                   <c:v>0.14583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2499999999999944E-2</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1400,7 +1400,7 @@
                   <c:v>0.14583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2499999999999944E-2</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1765,7 +1765,7 @@
                   <c:v>0.14583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2499999999999944E-2</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2132,7 +2132,7 @@
                   <c:v>0.14583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2499999999999944E-2</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2808,7 +2808,7 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.20833333333333331</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3195,7 +3195,7 @@
                   <c:v>0.14583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2499999999999944E-2</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -6993,7 +6993,7 @@
                   <c:v>0.14583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2499999999999944E-2</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -14057,8 +14057,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:N18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14138,10 +14138,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14149,10 +14149,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14178,10 +14178,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14189,10 +14189,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14259,19 +14259,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14280,25 +14280,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="54">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14309,22 +14309,22 @@
         <f>F2</f>
         <v>45693</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14332,25 +14332,25 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14361,22 +14361,22 @@
         <f>A12+1</f>
         <v>45694</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14384,27 +14384,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14415,48 +14415,48 @@
         <f>A14+1</f>
         <v>45695</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
-        <v>6.2499999999999944E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D17" s="58" t="s">
+        <v>0.4375</v>
+      </c>
+      <c r="D17" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14465,46 +14465,46 @@
         <f>A16+1</f>
         <v>45696</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14513,22 +14513,22 @@
         <f>A18+1</f>
         <v>45697</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14547,7 +14547,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14569,51 +14569,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14640,7 +14640,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>B11+B13+B15+B17+B19</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -14663,7 +14663,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -14683,16 +14683,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14706,6 +14696,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14995,11 +14995,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15007,11 +15007,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15037,11 +15037,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15049,11 +15049,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15120,18 +15120,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15141,25 +15141,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15168,46 +15168,46 @@
         <f>F2</f>
         <v>45700</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15216,46 +15216,46 @@
         <f>A12+1</f>
         <v>45701</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15264,46 +15264,46 @@
         <f>A14+1</f>
         <v>45702</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15312,46 +15312,46 @@
         <f>A16+1</f>
         <v>45703</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15360,22 +15360,22 @@
         <f>A18+1</f>
         <v>45704</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15394,7 +15394,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15416,51 +15416,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15487,7 +15487,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 1'!D27)</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -15533,11 +15533,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N12"/>
+    <mergeCell ref="D13:N14"/>
     <mergeCell ref="D15:N16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
@@ -15547,15 +15551,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N12"/>
-    <mergeCell ref="D13:N14"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15647,11 +15647,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15659,11 +15659,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15689,11 +15689,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15701,11 +15701,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15772,18 +15772,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15793,25 +15793,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15820,46 +15820,46 @@
         <f>F2</f>
         <v>45707</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15868,46 +15868,46 @@
         <f>A12+1</f>
         <v>45708</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15916,46 +15916,46 @@
         <f>A14+1</f>
         <v>45709</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15964,46 +15964,46 @@
         <f>A16+1</f>
         <v>45710</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16012,22 +16012,22 @@
         <f>A18+1</f>
         <v>45711</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16046,7 +16046,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16068,51 +16068,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16139,7 +16139,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16182,16 +16182,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16205,6 +16195,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16296,11 +16296,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16308,11 +16308,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16338,11 +16338,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16350,11 +16350,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16421,18 +16421,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16442,25 +16442,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16469,46 +16469,46 @@
         <f>F2</f>
         <v>45714</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16517,46 +16517,46 @@
         <f>A12+1</f>
         <v>45715</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16565,45 +16565,45 @@
         <f>A14+1</f>
         <v>45716</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16613,45 +16613,45 @@
         <f>A16+1</f>
         <v>45717</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16661,22 +16661,22 @@
         <f>A18+1</f>
         <v>45718</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16695,7 +16695,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16717,51 +16717,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16788,7 +16788,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16831,16 +16831,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16854,6 +16844,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16946,10 +16946,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16957,10 +16957,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16986,10 +16986,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16997,10 +16997,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17067,18 +17067,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17088,23 +17088,23 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17113,43 +17113,43 @@
         <f>F2</f>
         <v>45721</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17159,43 +17159,43 @@
         <f>A12+1</f>
         <v>45722</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17205,43 +17205,43 @@
         <f>A14+1</f>
         <v>45723</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17251,45 +17251,45 @@
         <f>A16+1</f>
         <v>45724</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17299,22 +17299,22 @@
         <f>A18+1</f>
         <v>45725</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17333,7 +17333,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17355,51 +17355,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17426,7 +17426,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17469,16 +17469,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17492,6 +17482,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17596,11 +17596,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17608,11 +17608,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17638,11 +17638,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17650,11 +17650,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17721,18 +17721,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17742,25 +17742,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17769,45 +17769,45 @@
         <f>F2</f>
         <v>45728</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17817,45 +17817,45 @@
         <f>A12+1</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17865,45 +17865,45 @@
         <f>A14+1</f>
         <v>45730</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17913,45 +17913,45 @@
         <f>A16+1</f>
         <v>45731</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17961,22 +17961,22 @@
         <f>A18+1</f>
         <v>45732</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17995,7 +17995,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18017,51 +18017,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18088,7 +18088,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18131,16 +18131,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18154,6 +18144,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18246,11 +18246,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18258,11 +18258,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18288,11 +18288,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18300,11 +18300,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18371,18 +18371,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18392,25 +18392,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -18419,45 +18419,45 @@
         <f>F2</f>
         <v>45735</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18467,45 +18467,45 @@
         <f>A12+1</f>
         <v>45736</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18515,45 +18515,45 @@
         <f>A14+1</f>
         <v>45737</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18563,45 +18563,45 @@
         <f>A16+1</f>
         <v>45738</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18611,22 +18611,22 @@
         <f>A18+1</f>
         <v>45739</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18645,7 +18645,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18667,51 +18667,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18738,7 +18738,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18781,16 +18781,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18804,6 +18794,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18908,11 +18908,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18920,11 +18920,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18950,11 +18950,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18962,11 +18962,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19033,18 +19033,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19054,25 +19054,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -19081,45 +19081,45 @@
         <f>F2</f>
         <v>45742</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19129,45 +19129,45 @@
         <f>A12+1</f>
         <v>45743</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19177,45 +19177,45 @@
         <f>A14+1</f>
         <v>45744</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19225,45 +19225,45 @@
         <f>A16+1</f>
         <v>45745</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19273,22 +19273,22 @@
         <f>A18+1</f>
         <v>45746</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19307,7 +19307,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19329,51 +19329,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19400,7 +19400,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19443,16 +19443,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19466,6 +19456,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="C7" s="38">
         <f>'week 1'!B17</f>
-        <v>6.2499999999999944E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="44" t="s">
@@ -20044,7 +20044,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="48">
         <f>'week 1'!D28</f>
-        <v>0.20833333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="B24" s="48">
         <f>'week 2'!D28</f>
@@ -20090,7 +20090,7 @@
       </c>
       <c r="R24" s="36">
         <f>SUM(C7,G7,K7,O7,S7,W7,AA7,AE7)</f>
-        <v>6.2499999999999944E-2</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
@@ -20190,6 +20190,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20392,27 +20412,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20429,23 +20448,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
+++ b/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1872969-B249-45FD-A517-2A278ECA7889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C0813E-9F00-49E7-AFBF-78FDC84EE307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="46">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Hendrik Bijlsma</t>
   </si>
   <si>
-    <t>Kees Naatvlees</t>
-  </si>
-  <si>
     <t>NHL Stenden</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Start persoonlijk leerplan</t>
+  </si>
+  <si>
+    <t>Vergadering , plannen en taken verdelen.</t>
   </si>
 </sst>
 </file>
@@ -795,18 +795,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,6 +859,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,7 +1179,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,7 +1403,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,7 +1768,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,7 +2135,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2808,7 +2808,7 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3198,7 +3198,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6996,7 +6996,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -14058,7 +14058,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="O19" sqref="O19:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14138,10 +14138,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14149,10 +14149,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="52"/>
+      <c r="J4" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14178,10 +14178,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14189,10 +14189,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="52"/>
+      <c r="J6" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14259,19 +14259,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14280,25 +14280,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="50">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14309,22 +14309,22 @@
         <f>F2</f>
         <v>45693</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14332,25 +14332,25 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14361,22 +14361,22 @@
         <f>A12+1</f>
         <v>45694</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14384,27 +14384,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14415,48 +14415,48 @@
         <f>A14+1</f>
         <v>45695</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14465,46 +14465,48 @@
         <f>A16+1</f>
         <v>45696</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14513,22 +14515,22 @@
         <f>A18+1</f>
         <v>45697</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14547,7 +14549,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14569,51 +14571,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14640,7 +14642,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>B11+B13+B15+B17+B19</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -14663,7 +14665,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -14683,6 +14685,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14696,16 +14708,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14995,11 +14997,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15007,11 +15009,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15037,11 +15039,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15049,11 +15051,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15120,18 +15122,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15141,25 +15143,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15168,46 +15170,46 @@
         <f>F2</f>
         <v>45700</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15216,46 +15218,46 @@
         <f>A12+1</f>
         <v>45701</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15264,46 +15266,46 @@
         <f>A14+1</f>
         <v>45702</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15312,46 +15314,46 @@
         <f>A16+1</f>
         <v>45703</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15360,22 +15362,22 @@
         <f>A18+1</f>
         <v>45704</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15394,7 +15396,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15416,51 +15418,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15487,7 +15489,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 1'!D27)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -15533,6 +15535,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="D17:N18"/>
+    <mergeCell ref="D19:N20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:D4"/>
@@ -15542,20 +15558,6 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="D17:N18"/>
-    <mergeCell ref="D19:N20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15647,11 +15649,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15659,11 +15661,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15689,11 +15691,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15701,11 +15703,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15772,18 +15774,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15793,25 +15795,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15820,46 +15822,46 @@
         <f>F2</f>
         <v>45707</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15868,46 +15870,46 @@
         <f>A12+1</f>
         <v>45708</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15916,46 +15918,46 @@
         <f>A14+1</f>
         <v>45709</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15964,46 +15966,46 @@
         <f>A16+1</f>
         <v>45710</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16012,22 +16014,22 @@
         <f>A18+1</f>
         <v>45711</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16046,7 +16048,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16068,51 +16070,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16139,7 +16141,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16182,6 +16184,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16195,16 +16207,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16296,11 +16298,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16308,11 +16310,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16338,11 +16340,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16350,11 +16352,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16421,18 +16423,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16442,25 +16444,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16469,46 +16471,46 @@
         <f>F2</f>
         <v>45714</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16517,46 +16519,46 @@
         <f>A12+1</f>
         <v>45715</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16565,45 +16567,45 @@
         <f>A14+1</f>
         <v>45716</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16613,45 +16615,45 @@
         <f>A16+1</f>
         <v>45717</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16661,22 +16663,22 @@
         <f>A18+1</f>
         <v>45718</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16695,7 +16697,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16717,51 +16719,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16788,7 +16790,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16831,6 +16833,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16844,16 +16856,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16865,7 +16867,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C15:C16"/>
+      <selection activeCell="O17" sqref="O17:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16946,10 +16948,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16957,10 +16959,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="52"/>
+      <c r="J4" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16986,10 +16988,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16997,10 +16999,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="52"/>
+      <c r="J6" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17067,18 +17069,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17088,23 +17090,23 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17113,43 +17115,43 @@
         <f>F2</f>
         <v>45721</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17159,43 +17161,43 @@
         <f>A12+1</f>
         <v>45722</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17205,43 +17207,43 @@
         <f>A14+1</f>
         <v>45723</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17251,45 +17253,45 @@
         <f>A16+1</f>
         <v>45724</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17299,22 +17301,22 @@
         <f>A18+1</f>
         <v>45725</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17333,7 +17335,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17355,51 +17357,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17426,7 +17428,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17469,6 +17471,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17482,16 +17494,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17596,11 +17598,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17608,11 +17610,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17638,11 +17640,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17650,11 +17652,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17721,18 +17723,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17742,25 +17744,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17769,45 +17771,45 @@
         <f>F2</f>
         <v>45728</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17817,45 +17819,45 @@
         <f>A12+1</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17865,45 +17867,45 @@
         <f>A14+1</f>
         <v>45730</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17913,45 +17915,45 @@
         <f>A16+1</f>
         <v>45731</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17961,22 +17963,22 @@
         <f>A18+1</f>
         <v>45732</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17995,7 +17997,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18017,51 +18019,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18088,7 +18090,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18131,6 +18133,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18144,16 +18156,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18246,11 +18248,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18258,11 +18260,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18288,11 +18290,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18300,11 +18302,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18371,18 +18373,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18392,25 +18394,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -18419,45 +18421,45 @@
         <f>F2</f>
         <v>45735</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18467,45 +18469,45 @@
         <f>A12+1</f>
         <v>45736</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18515,45 +18517,45 @@
         <f>A14+1</f>
         <v>45737</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18563,45 +18565,45 @@
         <f>A16+1</f>
         <v>45738</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18611,22 +18613,22 @@
         <f>A18+1</f>
         <v>45739</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18645,7 +18647,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18667,51 +18669,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18738,7 +18740,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18781,6 +18783,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18794,16 +18806,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18908,11 +18910,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18920,11 +18922,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18950,11 +18952,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18962,11 +18964,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Naatvlees</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19033,18 +19035,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19054,25 +19056,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -19081,45 +19083,45 @@
         <f>F2</f>
         <v>45742</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19129,45 +19131,45 @@
         <f>A12+1</f>
         <v>45743</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19177,45 +19179,45 @@
         <f>A14+1</f>
         <v>45744</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19225,45 +19227,45 @@
         <f>A16+1</f>
         <v>45745</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19273,22 +19275,22 @@
         <f>A18+1</f>
         <v>45746</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19307,7 +19309,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19329,51 +19331,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19400,7 +19402,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19443,6 +19445,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19456,16 +19468,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19954,7 +19956,7 @@
       </c>
       <c r="C8" s="39">
         <f>'week 1'!B19</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="46" t="s">
@@ -20044,7 +20046,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="48">
         <f>'week 1'!D28</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="B24" s="48">
         <f>'week 2'!D28</f>
@@ -20094,7 +20096,7 @@
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
@@ -20190,26 +20192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20412,26 +20394,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20448,4 +20431,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
+++ b/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C0813E-9F00-49E7-AFBF-78FDC84EE307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FAAFFF-5766-4EA9-9C41-32564415DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="50">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>Vergadering , plannen en taken verdelen.</t>
+  </si>
+  <si>
+    <t>documentatiewerkzaamheden, inventerisatie programmeren</t>
+  </si>
+  <si>
+    <t>Cees Draaier</t>
+  </si>
+  <si>
+    <t>Plan van aanpak formuleren</t>
+  </si>
+  <si>
+    <t>uitleg project</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1182,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333337</c:v>
@@ -1394,7 +1406,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333337</c:v>
@@ -1759,7 +1771,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333337</c:v>
@@ -2126,7 +2138,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333337</c:v>
@@ -2808,10 +2820,10 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.16666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3186,10 +3198,10 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333337</c:v>
@@ -3554,10 +3566,10 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6987,7 +6999,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14583333333333337</c:v>
@@ -6999,10 +7011,10 @@
                   <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -14057,8 +14069,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19:O20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14190,7 +14202,7 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="72" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="2"/>
@@ -14334,12 +14346,14 @@
       </c>
       <c r="B13" s="71">
         <f>C14-C13-O13</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
-        <v>0</v>
-      </c>
-      <c r="D13" s="58"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
@@ -14363,7 +14377,7 @@
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="26">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="56"/>
@@ -14642,7 +14656,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>B11+B13+B15+B17+B19</f>
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -14665,7 +14679,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -14915,8 +14929,8 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15053,7 +15067,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>Cees Naatvlees</v>
+        <v>Cees Draaier</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="2"/>
@@ -15145,12 +15159,14 @@
       </c>
       <c r="B11" s="71">
         <f>C12-C11-O11</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="C11" s="27">
-        <v>0</v>
-      </c>
-      <c r="D11" s="52"/>
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -15172,7 +15188,7 @@
       </c>
       <c r="B12" s="51"/>
       <c r="C12" s="26">
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="56"/>
@@ -15193,12 +15209,14 @@
       </c>
       <c r="B13" s="71">
         <f>C14-C13-O13</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
-        <v>0</v>
-      </c>
-      <c r="D13" s="58"/>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>48</v>
+      </c>
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
@@ -15220,7 +15238,7 @@
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="26">
-        <v>0</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D14" s="55"/>
       <c r="E14" s="56"/>
@@ -15489,7 +15507,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 1'!D27)</f>
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -15512,7 +15530,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -15705,7 +15723,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>Cees Naatvlees</v>
+        <v>Cees Draaier</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="2"/>
@@ -16141,7 +16159,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16218,7 +16236,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16354,7 +16372,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>Cees Naatvlees</v>
+        <v>Cees Draaier</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="2"/>
@@ -16790,7 +16808,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16867,7 +16885,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:O18"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17428,7 +17446,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17654,7 +17672,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>Cees Naatvlees</v>
+        <v>Cees Draaier</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="2"/>
@@ -18090,7 +18108,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18304,7 +18322,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>Cees Naatvlees</v>
+        <v>Cees Draaier</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="2"/>
@@ -18740,7 +18758,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18966,7 +18984,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
-        <v>Cees Naatvlees</v>
+        <v>Cees Draaier</v>
       </c>
       <c r="K6" s="72"/>
       <c r="L6" s="2"/>
@@ -19402,7 +19420,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19600,7 +19618,7 @@
       </c>
       <c r="G4" s="45">
         <f>'week 2'!B11</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="44" t="s">
@@ -19680,7 +19698,7 @@
       </c>
       <c r="C5" s="38">
         <f>'week 1'!B13</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="44" t="s">
@@ -19692,7 +19710,7 @@
       </c>
       <c r="G5" s="45">
         <f>'week 2'!B13</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="44" t="s">
@@ -20046,11 +20064,11 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="48">
         <f>'week 1'!D28</f>
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="B24" s="48">
         <f>'week 2'!D28</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="C24" s="48">
         <f>'week 3'!D28</f>
@@ -20080,11 +20098,11 @@
       <c r="M24" s="36"/>
       <c r="O24" s="36">
         <f>SUM(C4,G4,K4,O4,S4,W4,AA4,AE4)</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="P24" s="36">
         <f>SUM(C5,G5,K5,O5,S5,W5,AA5,AE5)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Q24" s="36">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6,AE6)</f>

--- a/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
+++ b/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FAAFFF-5766-4EA9-9C41-32564415DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06B38C-E01F-4E42-871C-13C3DE52B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="54">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>uitleg project</t>
+  </si>
+  <si>
+    <t>Documenteren , PVA afronden inleveren</t>
+  </si>
+  <si>
+    <t>ziek</t>
+  </si>
+  <si>
+    <t>hele dag les</t>
+  </si>
+  <si>
+    <t>projectplanning opfrissen en start VHDL state diagrammen</t>
   </si>
 </sst>
 </file>
@@ -807,6 +819,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,18 +895,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2823,10 +2835,10 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666663</c:v>
+                  <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3204,13 +3216,13 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14583333333333337</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,7 +3590,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4069,7 +4081,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -7023,7 +7035,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -7032,7 +7044,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -14069,8 +14081,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14150,10 +14162,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14161,10 +14173,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14190,10 +14202,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14201,10 +14213,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14271,19 +14283,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14292,25 +14304,27 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="54">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14321,22 +14335,22 @@
         <f>F2</f>
         <v>45693</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14344,27 +14358,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14375,22 +14389,22 @@
         <f>A12+1</f>
         <v>45694</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14398,27 +14412,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14429,48 +14443,48 @@
         <f>A14+1</f>
         <v>45695</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14479,48 +14493,48 @@
         <f>A16+1</f>
         <v>45696</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>6.25E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14529,22 +14543,22 @@
         <f>A18+1</f>
         <v>45697</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14563,7 +14577,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14585,51 +14599,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14699,16 +14713,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14722,6 +14726,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14929,8 +14943,8 @@
   <sheetPr codeName="Blad2"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15011,11 +15025,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15023,11 +15037,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15053,11 +15067,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15065,11 +15079,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15136,18 +15150,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15157,27 +15171,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C11" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15186,48 +15200,48 @@
         <f>F2</f>
         <v>45700</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15236,46 +15250,48 @@
         <f>A12+1</f>
         <v>45701</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15284,46 +15300,48 @@
         <f>A14+1</f>
         <v>45702</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15332,46 +15350,48 @@
         <f>A16+1</f>
         <v>45703</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15380,22 +15400,22 @@
         <f>A18+1</f>
         <v>45704</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15414,7 +15434,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15436,51 +15456,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15507,7 +15527,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 1'!D27)</f>
-        <v>0.54166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -15530,7 +15550,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0.16666666666666663</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -15553,11 +15573,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N12"/>
+    <mergeCell ref="D13:N14"/>
     <mergeCell ref="D15:N16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
@@ -15567,15 +15591,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N12"/>
-    <mergeCell ref="D13:N14"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15586,8 +15606,8 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15667,11 +15687,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15679,11 +15699,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15709,11 +15729,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15721,11 +15741,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15792,18 +15812,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15813,25 +15833,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15840,46 +15862,48 @@
         <f>F2</f>
         <v>45707</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15888,46 +15912,48 @@
         <f>A12+1</f>
         <v>45708</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="C15" s="27">
-        <v>0</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+        <v>0.4375</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15936,46 +15962,46 @@
         <f>A14+1</f>
         <v>45709</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15984,46 +16010,46 @@
         <f>A16+1</f>
         <v>45710</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16032,22 +16058,22 @@
         <f>A18+1</f>
         <v>45711</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16066,7 +16092,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16088,51 +16114,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16159,7 +16185,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16182,7 +16208,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -16202,16 +16228,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16225,6 +16241,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16316,11 +16342,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16328,11 +16354,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16358,11 +16384,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16370,11 +16396,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16441,18 +16467,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16462,25 +16488,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16489,46 +16515,46 @@
         <f>F2</f>
         <v>45714</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16537,46 +16563,46 @@
         <f>A12+1</f>
         <v>45715</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16585,45 +16611,45 @@
         <f>A14+1</f>
         <v>45716</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16633,45 +16659,45 @@
         <f>A16+1</f>
         <v>45717</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16681,22 +16707,22 @@
         <f>A18+1</f>
         <v>45718</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16715,7 +16741,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16737,51 +16763,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16808,7 +16834,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16851,16 +16877,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16874,6 +16890,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16966,10 +16992,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16977,10 +17003,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17006,10 +17032,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17017,10 +17043,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17087,18 +17113,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17108,23 +17134,23 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17133,43 +17159,43 @@
         <f>F2</f>
         <v>45721</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17179,43 +17205,43 @@
         <f>A12+1</f>
         <v>45722</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17225,43 +17251,43 @@
         <f>A14+1</f>
         <v>45723</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17271,45 +17297,45 @@
         <f>A16+1</f>
         <v>45724</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17319,22 +17345,22 @@
         <f>A18+1</f>
         <v>45725</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17353,7 +17379,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17375,51 +17401,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17446,7 +17472,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17489,16 +17515,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17512,6 +17528,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17616,11 +17642,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17628,11 +17654,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17658,11 +17684,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17670,11 +17696,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17741,18 +17767,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17762,25 +17788,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17789,45 +17815,45 @@
         <f>F2</f>
         <v>45728</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17837,45 +17863,45 @@
         <f>A12+1</f>
         <v>45729</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17885,45 +17911,45 @@
         <f>A14+1</f>
         <v>45730</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17933,45 +17959,45 @@
         <f>A16+1</f>
         <v>45731</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17981,22 +18007,22 @@
         <f>A18+1</f>
         <v>45732</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18015,7 +18041,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18037,51 +18063,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18108,7 +18134,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18151,16 +18177,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18174,6 +18190,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18266,11 +18292,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18278,11 +18304,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18308,11 +18334,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18320,11 +18346,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18391,18 +18417,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18412,25 +18438,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -18439,45 +18465,45 @@
         <f>F2</f>
         <v>45735</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18487,45 +18513,45 @@
         <f>A12+1</f>
         <v>45736</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18535,45 +18561,45 @@
         <f>A14+1</f>
         <v>45737</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18583,45 +18609,45 @@
         <f>A16+1</f>
         <v>45738</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18631,22 +18657,22 @@
         <f>A18+1</f>
         <v>45739</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18665,7 +18691,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18687,51 +18713,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18758,7 +18784,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18801,16 +18827,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18824,6 +18840,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18928,11 +18954,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18940,11 +18966,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18970,11 +18996,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18982,11 +19008,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19053,18 +19079,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19074,25 +19100,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -19101,45 +19127,45 @@
         <f>F2</f>
         <v>45742</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19149,45 +19175,45 @@
         <f>A12+1</f>
         <v>45743</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19197,45 +19223,45 @@
         <f>A14+1</f>
         <v>45744</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19245,45 +19271,45 @@
         <f>A16+1</f>
         <v>45745</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19293,22 +19319,22 @@
         <f>A18+1</f>
         <v>45746</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19327,7 +19353,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19349,51 +19375,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19420,7 +19446,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.54166666666666663</v>
+        <v>0.77083333333333326</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19463,16 +19489,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19486,6 +19502,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19814,7 +19840,7 @@
       </c>
       <c r="K6" s="45">
         <f>'week 3'!B15</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="M6" s="44" t="s">
         <v>17</v>
@@ -19986,7 +20012,7 @@
       </c>
       <c r="G8" s="47">
         <f>'week 2'!B19</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="46" t="s">
@@ -20068,11 +20094,11 @@
       </c>
       <c r="B24" s="48">
         <f>'week 2'!D28</f>
-        <v>0.16666666666666663</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="C24" s="48">
         <f>'week 3'!D28</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="D24" s="48">
         <f>'week 4'!D28</f>
@@ -20106,7 +20132,7 @@
       </c>
       <c r="Q24" s="36">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6,AE6)</f>
-        <v>0.14583333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="R24" s="36">
         <f>SUM(C7,G7,K7,O7,S7,W7,AA7,AE7)</f>
@@ -20114,7 +20140,7 @@
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>6.25E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
@@ -20210,6 +20236,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20412,27 +20458,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20449,23 +20494,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
+++ b/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06B38C-E01F-4E42-871C-13C3DE52B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183FA3D-48B5-4AD2-B78C-F44E7B15EF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="56">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>projectplanning opfrissen en start VHDL state diagrammen</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Vergadering Cees en bespreken afgelopen weken</t>
   </si>
 </sst>
 </file>
@@ -819,18 +825,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,6 +889,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,19 +1173,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,19 +1397,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,19 +1453,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5-2-2025</c:v>
+                  <c:v>10-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-2-2025</c:v>
+                  <c:v>11-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-2-2025</c:v>
+                  <c:v>12-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-2-2025</c:v>
+                  <c:v>13-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-2-2025</c:v>
+                  <c:v>14-2-2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1547,19 +1553,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,19 +1762,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,19 +1818,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5-2-2025</c:v>
+                  <c:v>10-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-2-2025</c:v>
+                  <c:v>11-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-2-2025</c:v>
+                  <c:v>12-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-2-2025</c:v>
+                  <c:v>13-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-2-2025</c:v>
+                  <c:v>14-2-2025</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1913,19 +1919,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2123,19 +2129,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2179,19 +2185,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5-2-2025</c:v>
+                  <c:v>10-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-2-2025</c:v>
+                  <c:v>11-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-2-2025</c:v>
+                  <c:v>12-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-2-2025</c:v>
+                  <c:v>13-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-2-2025</c:v>
+                  <c:v>14-2-2025</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2280,19 +2286,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2342,19 +2348,19 @@
                     <c:strCache>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>5-2-2025</c:v>
+                        <c:v>10-2-2025</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6-2-2025</c:v>
+                        <c:v>11-2-2025</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7-2-2025</c:v>
+                        <c:v>12-2-2025</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>8-2-2025</c:v>
+                        <c:v>13-2-2025</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>9-2-2025</c:v>
+                        <c:v>14-2-2025</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2448,19 +2454,19 @@
                       <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>45693</c:v>
+                        <c:v>45698</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>45694</c:v>
+                        <c:v>45699</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>45695</c:v>
+                        <c:v>45700</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>45696</c:v>
+                        <c:v>45701</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>45697</c:v>
+                        <c:v>45702</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2838,7 +2844,7 @@
                   <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10416666666666663</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3222,7 +3228,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.27083333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,19 +3560,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45700</c:v>
+                  <c:v>45705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45701</c:v>
+                  <c:v>45706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45702</c:v>
+                  <c:v>45707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45703</c:v>
+                  <c:v>45708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45704</c:v>
+                  <c:v>45709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,19 +3704,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45700</c:v>
+                  <c:v>45705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45701</c:v>
+                  <c:v>45706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45702</c:v>
+                  <c:v>45707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45703</c:v>
+                  <c:v>45708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45704</c:v>
+                  <c:v>45709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4051,19 +4057,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45707</c:v>
+                  <c:v>45712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45708</c:v>
+                  <c:v>45713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45709</c:v>
+                  <c:v>45714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45710</c:v>
+                  <c:v>45715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45711</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4087,7 +4093,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,19 +4201,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45707</c:v>
+                  <c:v>45712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45708</c:v>
+                  <c:v>45713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45709</c:v>
+                  <c:v>45714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45710</c:v>
+                  <c:v>45715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45711</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,19 +4498,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45714</c:v>
+                  <c:v>45719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45715</c:v>
+                  <c:v>45720</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45716</c:v>
+                  <c:v>45721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45717</c:v>
+                  <c:v>45722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45718</c:v>
+                  <c:v>45723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4803,19 +4809,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45721</c:v>
+                  <c:v>45726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45722</c:v>
+                  <c:v>45727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45723</c:v>
+                  <c:v>45728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45724</c:v>
+                  <c:v>45729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45725</c:v>
+                  <c:v>45730</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5114,19 +5120,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45728</c:v>
+                  <c:v>45733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45729</c:v>
+                  <c:v>45734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45730</c:v>
+                  <c:v>45735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45731</c:v>
+                  <c:v>45736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45732</c:v>
+                  <c:v>45737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5425,19 +5431,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45735</c:v>
+                  <c:v>45740</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45736</c:v>
+                  <c:v>45741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45737</c:v>
+                  <c:v>45742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45738</c:v>
+                  <c:v>45743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45739</c:v>
+                  <c:v>45744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5736,19 +5742,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45742</c:v>
+                  <c:v>45747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45743</c:v>
+                  <c:v>45748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45744</c:v>
+                  <c:v>45749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45745</c:v>
+                  <c:v>45750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45746</c:v>
+                  <c:v>45751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6879,124 +6885,124 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45740</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45741</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45742</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>45743</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>45744</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>45745</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45746</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>45733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45734</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>45735</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>45736</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>45737</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>45738</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45739</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>45726</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45727</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>45728</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>45729</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>45730</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>45731</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45732</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
+                  <c:v>45719</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45720</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>45721</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
                   <c:v>45722</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>45723</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>45724</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45725</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
+                  <c:v>45712</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45713</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>45714</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="28">
                   <c:v>45715</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="29">
                   <c:v>45716</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45718</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
+                  <c:v>45705</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45706</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>45707</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="33">
                   <c:v>45708</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="34">
                   <c:v>45709</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>45710</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45711</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
+                  <c:v>45698</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45699</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>45700</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>45701</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>45702</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45704</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45693</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45694</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45695</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45696</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7050,7 +7056,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -14121,7 +14127,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 1'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45693</v>
+        <v>45698</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -14129,7 +14135,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45697</v>
+        <v>45702</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -14162,10 +14168,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14173,10 +14179,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14202,10 +14208,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14213,10 +14219,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14283,19 +14289,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14304,27 +14310,27 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="50">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14333,24 +14339,24 @@
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45693</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45698</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14358,27 +14364,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14387,24 +14393,24 @@
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45694</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45699</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14412,27 +14418,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14441,124 +14447,124 @@
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45695</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45700</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45696</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45701</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>6.25E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45697</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45702</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14577,7 +14583,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14599,51 +14605,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14713,6 +14719,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14726,16 +14742,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14762,7 +14768,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14782,7 +14788,7 @@
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="24">
-        <v>45693</v>
+        <v>45698</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="19">
@@ -14808,7 +14814,7 @@
       <c r="C4" s="23"/>
       <c r="D4" s="24">
         <f>D2+7</f>
-        <v>45700</v>
+        <v>45705</v>
       </c>
       <c r="G4" s="20">
         <v>3</v>
@@ -14829,7 +14835,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24">
         <f>D4+7</f>
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="G6" s="20">
         <v>5</v>
@@ -14850,7 +14856,7 @@
       <c r="C8" s="23"/>
       <c r="D8" s="24">
         <f>D6+7</f>
-        <v>45714</v>
+        <v>45719</v>
       </c>
       <c r="G8" s="20">
         <v>7</v>
@@ -14871,7 +14877,7 @@
       <c r="C10" s="23"/>
       <c r="D10" s="24">
         <f>D8+7</f>
-        <v>45721</v>
+        <v>45726</v>
       </c>
       <c r="G10" s="21">
         <v>9</v>
@@ -14888,7 +14894,7 @@
       <c r="C12" s="23"/>
       <c r="D12" s="24">
         <f>D10+7</f>
-        <v>45728</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14902,7 +14908,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <f>D12+7</f>
-        <v>45735</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14916,7 +14922,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24">
         <f>D14+7</f>
-        <v>45742</v>
+        <v>45747</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14930,7 +14936,7 @@
       <c r="C18" s="23"/>
       <c r="D18" s="24">
         <f>D16+7</f>
-        <v>45749</v>
+        <v>45754</v>
       </c>
     </row>
   </sheetData>
@@ -14983,7 +14989,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 2'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45700</v>
+        <v>45705</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -14991,7 +14997,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45704</v>
+        <v>45709</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -15025,11 +15031,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15037,11 +15043,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15067,11 +15073,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15079,11 +15085,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15150,18 +15156,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15171,251 +15177,251 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C11" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45700</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45705</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45701</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45706</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45702</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45707</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45703</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45708</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0.125</v>
       </c>
       <c r="C19" s="27">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45704</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45709</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15434,7 +15440,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15456,51 +15462,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15573,6 +15579,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="D17:N18"/>
+    <mergeCell ref="D19:N20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:D4"/>
@@ -15582,20 +15602,6 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="D17:N18"/>
-    <mergeCell ref="D19:N20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15606,8 +15612,8 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15:O16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15645,7 +15651,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 3'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -15653,7 +15659,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45711</v>
+        <v>45716</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -15687,11 +15693,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15699,11 +15705,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15729,11 +15735,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15741,11 +15747,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15812,18 +15818,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15833,247 +15839,251 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45707</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45712</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45708</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45713</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45709</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45714</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45710</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45715</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45711</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45716</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16092,7 +16102,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16114,51 +16124,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16185,7 +16195,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16208,7 +16218,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0.10416666666666663</v>
+        <v>0.1875</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -16228,6 +16238,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16241,16 +16261,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16300,7 +16310,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 4'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45714</v>
+        <v>45719</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -16308,7 +16318,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45718</v>
+        <v>45723</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -16342,11 +16352,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16354,11 +16364,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16384,11 +16394,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16396,11 +16406,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16467,18 +16477,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16488,168 +16498,168 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45714</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45719</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45715</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45720</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45716</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45721</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16657,47 +16667,47 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45717</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45722</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16705,24 +16715,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45718</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45723</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16741,7 +16751,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16763,51 +16773,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16834,7 +16844,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16877,6 +16887,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16890,16 +16910,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16950,7 +16960,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 5'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45721</v>
+        <v>45726</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -16958,7 +16968,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45725</v>
+        <v>45730</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -16992,10 +17002,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17003,10 +17013,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17032,10 +17042,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17043,10 +17053,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17113,18 +17123,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17134,68 +17144,68 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45721</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45726</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17203,45 +17213,45 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45722</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45727</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17249,45 +17259,45 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45723</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45728</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17295,47 +17305,47 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45724</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45729</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17343,24 +17353,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45725</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45730</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17379,7 +17389,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17401,51 +17411,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17472,7 +17482,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17515,6 +17525,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17528,16 +17548,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17600,7 +17610,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 6'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45728</v>
+        <v>45733</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -17608,7 +17618,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45732</v>
+        <v>45737</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -17642,11 +17652,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17654,11 +17664,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17684,11 +17694,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17696,11 +17706,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17767,18 +17777,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17788,72 +17798,72 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45728</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45733</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17861,47 +17871,47 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45729</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45734</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17909,47 +17919,47 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45730</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45735</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17957,47 +17967,47 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45731</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45736</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18005,24 +18015,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45732</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45737</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18041,7 +18051,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18063,51 +18073,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18134,7 +18144,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18177,6 +18187,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18190,16 +18210,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18250,7 +18260,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 7'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45735</v>
+        <v>45740</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -18258,7 +18268,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45739</v>
+        <v>45744</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -18292,11 +18302,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18304,11 +18314,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18334,11 +18344,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18346,11 +18356,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18417,18 +18427,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18438,72 +18448,72 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45735</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45740</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18511,47 +18521,47 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45736</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45741</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18559,47 +18569,47 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45737</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45742</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18607,47 +18617,47 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45738</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45743</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18655,24 +18665,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45739</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45744</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18691,7 +18701,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18713,51 +18723,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18784,7 +18794,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18827,6 +18837,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18840,16 +18860,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18912,7 +18922,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 8'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45742</v>
+        <v>45747</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -18920,7 +18930,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45746</v>
+        <v>45751</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -18954,11 +18964,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18966,11 +18976,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18996,11 +19006,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -19008,11 +19018,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19079,18 +19089,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19100,72 +19110,72 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45742</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45747</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19173,47 +19183,47 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45743</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45748</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19221,47 +19231,47 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45744</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45749</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19269,47 +19279,47 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45745</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45750</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19317,24 +19327,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45746</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45751</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19353,7 +19363,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19375,51 +19385,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19446,7 +19456,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19489,6 +19499,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19502,16 +19522,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19628,7 +19638,7 @@
       </c>
       <c r="B4" s="40">
         <f>'week 1'!A12</f>
-        <v>45693</v>
+        <v>45698</v>
       </c>
       <c r="C4" s="37">
         <f>'week 1'!B11</f>
@@ -19640,7 +19650,7 @@
       </c>
       <c r="F4" s="40">
         <f>'week 2'!A12</f>
-        <v>45700</v>
+        <v>45705</v>
       </c>
       <c r="G4" s="45">
         <f>'week 2'!B11</f>
@@ -19652,7 +19662,7 @@
       </c>
       <c r="J4" s="40">
         <f>'week 3'!A12</f>
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="K4" s="45">
         <f>'week 3'!B11</f>
@@ -19663,7 +19673,7 @@
       </c>
       <c r="N4" s="40">
         <f>'week 4'!A12</f>
-        <v>45714</v>
+        <v>45719</v>
       </c>
       <c r="O4" s="45">
         <f>'week 4'!B11</f>
@@ -19674,7 +19684,7 @@
       </c>
       <c r="R4" s="40">
         <f>'week 5'!A12</f>
-        <v>45721</v>
+        <v>45726</v>
       </c>
       <c r="S4" s="45">
         <f>'week 5'!B11</f>
@@ -19685,7 +19695,7 @@
       </c>
       <c r="V4" s="40">
         <f>'week 6'!A12</f>
-        <v>45728</v>
+        <v>45733</v>
       </c>
       <c r="W4" s="45">
         <f>'week 6'!B11</f>
@@ -19696,7 +19706,7 @@
       </c>
       <c r="Z4" s="40">
         <f>'week 7'!A12</f>
-        <v>45735</v>
+        <v>45740</v>
       </c>
       <c r="AA4" s="45">
         <f>'week 7'!B11</f>
@@ -19707,7 +19717,7 @@
       </c>
       <c r="AD4" s="40">
         <f>'week 8'!A12</f>
-        <v>45742</v>
+        <v>45747</v>
       </c>
       <c r="AE4" s="37">
         <f>'week 8'!B11</f>
@@ -19720,7 +19730,7 @@
       </c>
       <c r="B5" s="41">
         <f>'week 1'!A14</f>
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="C5" s="38">
         <f>'week 1'!B13</f>
@@ -19732,7 +19742,7 @@
       </c>
       <c r="F5" s="41">
         <f>'week 2'!A14</f>
-        <v>45701</v>
+        <v>45706</v>
       </c>
       <c r="G5" s="45">
         <f>'week 2'!B13</f>
@@ -19744,7 +19754,7 @@
       </c>
       <c r="J5" s="41">
         <f>'week 3'!A14</f>
-        <v>45708</v>
+        <v>45713</v>
       </c>
       <c r="K5" s="45">
         <f>'week 3'!B13</f>
@@ -19755,7 +19765,7 @@
       </c>
       <c r="N5" s="41">
         <f>'week 4'!A14</f>
-        <v>45715</v>
+        <v>45720</v>
       </c>
       <c r="O5" s="45">
         <f>'week 4'!B13</f>
@@ -19766,7 +19776,7 @@
       </c>
       <c r="R5" s="41">
         <f>'week 5'!A14</f>
-        <v>45722</v>
+        <v>45727</v>
       </c>
       <c r="S5" s="45">
         <f>'week 5'!B13</f>
@@ -19777,7 +19787,7 @@
       </c>
       <c r="V5" s="41">
         <f>'week 6'!A14</f>
-        <v>45729</v>
+        <v>45734</v>
       </c>
       <c r="W5" s="45">
         <f>'week 6'!B13</f>
@@ -19788,7 +19798,7 @@
       </c>
       <c r="Z5" s="41">
         <f>'week 7'!A14</f>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="AA5" s="45">
         <f>'week 7'!B13</f>
@@ -19799,7 +19809,7 @@
       </c>
       <c r="AD5" s="41">
         <f>'week 8'!A14</f>
-        <v>45743</v>
+        <v>45748</v>
       </c>
       <c r="AE5" s="38">
         <f>'week 8'!B13</f>
@@ -19812,7 +19822,7 @@
       </c>
       <c r="B6" s="41">
         <f>'week 1'!A16</f>
-        <v>45695</v>
+        <v>45700</v>
       </c>
       <c r="C6" s="38">
         <f>'week 1'!B15</f>
@@ -19824,7 +19834,7 @@
       </c>
       <c r="F6" s="41">
         <f>'week 2'!A16</f>
-        <v>45702</v>
+        <v>45707</v>
       </c>
       <c r="G6" s="45">
         <f>'week 2'!B15</f>
@@ -19836,7 +19846,7 @@
       </c>
       <c r="J6" s="41">
         <f>'week 3'!A16</f>
-        <v>45709</v>
+        <v>45714</v>
       </c>
       <c r="K6" s="45">
         <f>'week 3'!B15</f>
@@ -19847,7 +19857,7 @@
       </c>
       <c r="N6" s="41">
         <f>'week 4'!A16</f>
-        <v>45716</v>
+        <v>45721</v>
       </c>
       <c r="O6" s="45">
         <f>'week 4'!B15</f>
@@ -19858,7 +19868,7 @@
       </c>
       <c r="R6" s="41">
         <f>'week 5'!A16</f>
-        <v>45723</v>
+        <v>45728</v>
       </c>
       <c r="S6" s="45">
         <f>'week 5'!B15</f>
@@ -19869,7 +19879,7 @@
       </c>
       <c r="V6" s="41">
         <f>'week 6'!A16</f>
-        <v>45730</v>
+        <v>45735</v>
       </c>
       <c r="W6" s="45">
         <f>'week 6'!B15</f>
@@ -19880,7 +19890,7 @@
       </c>
       <c r="Z6" s="41">
         <f>'week 7'!A16</f>
-        <v>45737</v>
+        <v>45742</v>
       </c>
       <c r="AA6" s="45">
         <f>'week 7'!B15</f>
@@ -19891,7 +19901,7 @@
       </c>
       <c r="AD6" s="41">
         <f>'week 8'!A16</f>
-        <v>45744</v>
+        <v>45749</v>
       </c>
       <c r="AE6" s="38">
         <f>'week 8'!B15</f>
@@ -19904,7 +19914,7 @@
       </c>
       <c r="B7" s="41">
         <f>'week 1'!A18</f>
-        <v>45696</v>
+        <v>45701</v>
       </c>
       <c r="C7" s="38">
         <f>'week 1'!B17</f>
@@ -19916,7 +19926,7 @@
       </c>
       <c r="F7" s="41">
         <f>'week 2'!A18</f>
-        <v>45703</v>
+        <v>45708</v>
       </c>
       <c r="G7" s="45">
         <f>'week 2'!B17</f>
@@ -19928,7 +19938,7 @@
       </c>
       <c r="J7" s="41">
         <f>'week 3'!A18</f>
-        <v>45710</v>
+        <v>45715</v>
       </c>
       <c r="K7" s="45">
         <f>'week 3'!B17</f>
@@ -19939,7 +19949,7 @@
       </c>
       <c r="N7" s="41">
         <f>'week 4'!A18</f>
-        <v>45717</v>
+        <v>45722</v>
       </c>
       <c r="O7" s="45">
         <f>'week 4'!B17</f>
@@ -19950,7 +19960,7 @@
       </c>
       <c r="R7" s="41">
         <f>'week 5'!A18</f>
-        <v>45724</v>
+        <v>45729</v>
       </c>
       <c r="S7" s="45">
         <f>'week 5'!B17</f>
@@ -19961,7 +19971,7 @@
       </c>
       <c r="V7" s="41">
         <f>'week 6'!A18</f>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="W7" s="45">
         <f>'week 6'!B17</f>
@@ -19972,7 +19982,7 @@
       </c>
       <c r="Z7" s="41">
         <f>'week 7'!A18</f>
-        <v>45738</v>
+        <v>45743</v>
       </c>
       <c r="AA7" s="45">
         <f>'week 7'!B17</f>
@@ -19983,7 +19993,7 @@
       </c>
       <c r="AD7" s="41">
         <f>'week 8'!A18</f>
-        <v>45745</v>
+        <v>45750</v>
       </c>
       <c r="AE7" s="38">
         <f>'week 8'!B17</f>
@@ -19996,7 +20006,7 @@
       </c>
       <c r="B8" s="42">
         <f>'week 1'!A20</f>
-        <v>45697</v>
+        <v>45702</v>
       </c>
       <c r="C8" s="39">
         <f>'week 1'!B19</f>
@@ -20008,7 +20018,7 @@
       </c>
       <c r="F8" s="42">
         <f>'week 2'!A20</f>
-        <v>45704</v>
+        <v>45709</v>
       </c>
       <c r="G8" s="47">
         <f>'week 2'!B19</f>
@@ -20020,18 +20030,18 @@
       </c>
       <c r="J8" s="42">
         <f>'week 3'!A20</f>
-        <v>45711</v>
+        <v>45716</v>
       </c>
       <c r="K8" s="47">
         <f>'week 3'!B19</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="M8" s="46" t="s">
         <v>19</v>
       </c>
       <c r="N8" s="42">
         <f>'week 4'!A20</f>
-        <v>45718</v>
+        <v>45723</v>
       </c>
       <c r="O8" s="47">
         <f>'week 4'!B19</f>
@@ -20042,7 +20052,7 @@
       </c>
       <c r="R8" s="42">
         <f>'week 5'!A20</f>
-        <v>45725</v>
+        <v>45730</v>
       </c>
       <c r="S8" s="47">
         <f>'week 5'!B19</f>
@@ -20053,7 +20063,7 @@
       </c>
       <c r="V8" s="42">
         <f>'week 6'!A20</f>
-        <v>45732</v>
+        <v>45737</v>
       </c>
       <c r="W8" s="47">
         <f>'week 6'!B19</f>
@@ -20064,7 +20074,7 @@
       </c>
       <c r="Z8" s="42">
         <f>'week 7'!A20</f>
-        <v>45739</v>
+        <v>45744</v>
       </c>
       <c r="AA8" s="47">
         <f>'week 7'!B19</f>
@@ -20075,7 +20085,7 @@
       </c>
       <c r="AD8" s="42">
         <f>'week 8'!A20</f>
-        <v>45746</v>
+        <v>45751</v>
       </c>
       <c r="AE8" s="39">
         <f>'week 8'!B19</f>
@@ -20098,7 +20108,7 @@
       </c>
       <c r="C24" s="48">
         <f>'week 3'!D28</f>
-        <v>0.10416666666666663</v>
+        <v>0.1875</v>
       </c>
       <c r="D24" s="48">
         <f>'week 4'!D28</f>
@@ -20140,7 +20150,7 @@
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>0.1875</v>
+        <v>0.27083333333333337</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
@@ -20236,26 +20246,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20458,26 +20448,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20494,4 +20485,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
+++ b/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183FA3D-48B5-4AD2-B78C-F44E7B15EF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79220710-6C09-419C-B22C-0D84DB2DEEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="57">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Vergadering Cees en bespreken afgelopen weken</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -825,6 +828,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,18 +904,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14168,10 +14171,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14179,10 +14182,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14208,10 +14211,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14219,10 +14222,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14289,19 +14292,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14310,27 +14313,27 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="54">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14341,22 +14344,22 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14364,27 +14367,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14395,22 +14398,22 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14418,27 +14421,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14449,48 +14452,48 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14499,48 +14502,48 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>6.25E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14549,22 +14552,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14583,7 +14586,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14605,51 +14608,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14719,16 +14722,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14742,6 +14735,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15031,11 +15034,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15043,11 +15046,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15073,11 +15076,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15085,11 +15088,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15156,18 +15159,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15177,27 +15180,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C11" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15206,48 +15209,48 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15256,48 +15259,48 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15306,48 +15309,48 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15356,48 +15359,48 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0.125</v>
       </c>
       <c r="C19" s="27">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15406,22 +15409,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15440,7 +15443,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15462,51 +15465,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15579,11 +15582,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N12"/>
+    <mergeCell ref="D13:N14"/>
     <mergeCell ref="D15:N16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
@@ -15593,15 +15600,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N12"/>
-    <mergeCell ref="D13:N14"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15610,10 +15613,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E7BBA4-B6D5-4772-A472-316E42DA83E3}">
   <sheetPr codeName="Blad4"/>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15693,11 +15696,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15705,11 +15708,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15735,11 +15738,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15747,11 +15750,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15818,18 +15821,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15839,27 +15842,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15868,48 +15871,48 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15918,48 +15921,48 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15968,124 +15971,127 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -16101,8 +16107,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16123,55 +16129,55 @@
       <c r="M22" s="17"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -16187,7 +16193,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -16210,7 +16216,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -16238,16 +16244,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16261,6 +16257,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16352,11 +16358,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16364,11 +16370,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16394,11 +16400,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16406,11 +16412,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16477,18 +16483,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16498,25 +16504,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16525,46 +16531,46 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16573,46 +16579,46 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16621,45 +16627,45 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16669,45 +16675,45 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16717,22 +16723,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16751,7 +16757,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16773,51 +16779,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16887,16 +16893,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16910,6 +16906,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17002,10 +17008,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17013,10 +17019,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17042,10 +17048,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17053,10 +17059,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17123,18 +17129,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17144,23 +17150,23 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17169,43 +17175,43 @@
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17215,43 +17221,43 @@
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17261,43 +17267,43 @@
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17307,45 +17313,45 @@
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17355,22 +17361,22 @@
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17389,7 +17395,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17411,51 +17417,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17525,16 +17531,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17548,6 +17544,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17652,11 +17658,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17664,11 +17670,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17694,11 +17700,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17706,11 +17712,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17777,18 +17783,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17798,25 +17804,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17825,45 +17831,45 @@
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17873,45 +17879,45 @@
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17921,45 +17927,45 @@
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17969,45 +17975,45 @@
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18017,22 +18023,22 @@
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18051,7 +18057,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18073,51 +18079,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18187,16 +18193,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18210,6 +18206,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18302,11 +18308,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18314,11 +18320,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18344,11 +18350,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18356,11 +18362,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18427,18 +18433,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18448,25 +18454,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -18475,45 +18481,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18523,45 +18529,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18571,45 +18577,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18619,45 +18625,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18667,22 +18673,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18701,7 +18707,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18723,51 +18729,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18837,16 +18843,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18860,6 +18856,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18964,11 +18970,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18976,11 +18982,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -19006,11 +19012,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -19018,11 +19024,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19089,18 +19095,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19110,25 +19116,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -19137,45 +19143,45 @@
         <f>F2</f>
         <v>45747</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19185,45 +19191,45 @@
         <f>A12+1</f>
         <v>45748</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19233,45 +19239,45 @@
         <f>A14+1</f>
         <v>45749</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19281,45 +19287,45 @@
         <f>A16+1</f>
         <v>45750</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19329,22 +19335,22 @@
         <f>A18+1</f>
         <v>45751</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19363,7 +19369,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19385,51 +19391,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19499,16 +19505,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19522,6 +19518,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20246,6 +20252,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20448,27 +20474,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20485,23 +20510,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
+++ b/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE06B38C-E01F-4E42-871C-13C3DE52B83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7905B295-E66C-4316-85EE-3FB6C239E756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="57">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>projectplanning opfrissen en start VHDL state diagrammen</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Vergadering Cees en bespreken afgelopen weken</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -819,18 +828,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,6 +892,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,19 +1176,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,7 +1197,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1391,19 +1400,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,7 +1421,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1447,19 +1456,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5-2-2025</c:v>
+                  <c:v>10/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-2-2025</c:v>
+                  <c:v>11/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-2-2025</c:v>
+                  <c:v>12/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-2-2025</c:v>
+                  <c:v>13/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-2-2025</c:v>
+                  <c:v>14/02/2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1547,19 +1556,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,19 +1765,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,7 +1786,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1812,19 +1821,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5-2-2025</c:v>
+                  <c:v>10/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-2-2025</c:v>
+                  <c:v>11/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-2-2025</c:v>
+                  <c:v>12/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-2-2025</c:v>
+                  <c:v>13/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-2-2025</c:v>
+                  <c:v>14/02/2025</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1913,19 +1922,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2123,19 +2132,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2144,7 +2153,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2179,19 +2188,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5-2-2025</c:v>
+                  <c:v>10/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6-2-2025</c:v>
+                  <c:v>11/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7-2-2025</c:v>
+                  <c:v>12/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8-2-2025</c:v>
+                  <c:v>13/02/2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9-2-2025</c:v>
+                  <c:v>14/02/2025</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2280,19 +2289,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45696</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45697</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2342,19 +2351,19 @@
                     <c:strCache>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>5-2-2025</c:v>
+                        <c:v>10/02/2025</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>6-2-2025</c:v>
+                        <c:v>11/02/2025</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7-2-2025</c:v>
+                        <c:v>12/02/2025</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>8-2-2025</c:v>
+                        <c:v>13/02/2025</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>9-2-2025</c:v>
+                        <c:v>14/02/2025</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2448,19 +2457,19 @@
                       <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>45693</c:v>
+                        <c:v>45698</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>45694</c:v>
+                        <c:v>45699</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>45695</c:v>
+                        <c:v>45700</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>45696</c:v>
+                        <c:v>45701</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>45697</c:v>
+                        <c:v>45702</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2829,7 +2838,7 @@
               </c:extLst>
               <c:f>'algemeene data.'!$A$24:$G$24</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.375</c:v>
@@ -2838,7 +2847,7 @@
                   <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10416666666666663</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3207,7 +3216,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$O$24:$S$24</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.10416666666666663</c:v>
@@ -3222,7 +3231,7 @@
                   <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.27083333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,19 +3563,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45700</c:v>
+                  <c:v>45705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45701</c:v>
+                  <c:v>45706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45702</c:v>
+                  <c:v>45707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45703</c:v>
+                  <c:v>45708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45704</c:v>
+                  <c:v>45709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3575,7 +3584,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.10416666666666663</c:v>
@@ -3698,19 +3707,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45700</c:v>
+                  <c:v>45705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45701</c:v>
+                  <c:v>45706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45702</c:v>
+                  <c:v>45707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45703</c:v>
+                  <c:v>45708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45704</c:v>
+                  <c:v>45709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4051,19 +4060,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45707</c:v>
+                  <c:v>45712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45708</c:v>
+                  <c:v>45713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45709</c:v>
+                  <c:v>45714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45710</c:v>
+                  <c:v>45715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45711</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4072,7 +4081,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$K$4:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4087,7 +4096,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,19 +4204,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45707</c:v>
+                  <c:v>45712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45708</c:v>
+                  <c:v>45713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45709</c:v>
+                  <c:v>45714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45710</c:v>
+                  <c:v>45715</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45711</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,19 +4501,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45714</c:v>
+                  <c:v>45719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45715</c:v>
+                  <c:v>45720</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45716</c:v>
+                  <c:v>45721</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45717</c:v>
+                  <c:v>45722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45718</c:v>
+                  <c:v>45723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4513,7 +4522,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$O$4:$O$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4803,19 +4812,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45721</c:v>
+                  <c:v>45726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45722</c:v>
+                  <c:v>45727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45723</c:v>
+                  <c:v>45728</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45724</c:v>
+                  <c:v>45729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45725</c:v>
+                  <c:v>45730</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4824,7 +4833,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$S$4:$S$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5114,19 +5123,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45728</c:v>
+                  <c:v>45733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45729</c:v>
+                  <c:v>45734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45730</c:v>
+                  <c:v>45735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45731</c:v>
+                  <c:v>45736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45732</c:v>
+                  <c:v>45737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5135,7 +5144,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$W$4:$W$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5425,19 +5434,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45735</c:v>
+                  <c:v>45740</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45736</c:v>
+                  <c:v>45741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45737</c:v>
+                  <c:v>45742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45738</c:v>
+                  <c:v>45743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45739</c:v>
+                  <c:v>45744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5446,7 +5455,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$AA$4:$AA$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5736,19 +5745,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45742</c:v>
+                  <c:v>45747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45743</c:v>
+                  <c:v>45748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45744</c:v>
+                  <c:v>45749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45745</c:v>
+                  <c:v>45750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45746</c:v>
+                  <c:v>45751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5757,7 +5766,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$AE$4:$AE$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6879,124 +6888,124 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
+                  <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45740</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45741</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>45742</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>45743</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>45744</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>45745</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45746</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>45733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45734</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>45735</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>45736</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>45737</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>45738</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45739</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>45726</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45727</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>45728</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>45729</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>45730</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>45731</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45732</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
+                  <c:v>45719</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45720</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>45721</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
                   <c:v>45722</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>45723</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>45724</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45725</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
+                  <c:v>45712</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45713</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>45714</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="28">
                   <c:v>45715</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="29">
                   <c:v>45716</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>45717</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45718</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
+                  <c:v>45705</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45706</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>45707</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="33">
                   <c:v>45708</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="34">
                   <c:v>45709</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>45710</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45711</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
+                  <c:v>45698</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45699</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>45700</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>45701</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>45702</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45704</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45693</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45694</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45695</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45696</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7005,7 +7014,7 @@
             <c:numRef>
               <c:f>('algemeene data.'!$C$4:$C$8,'algemeene data.'!$G$4:$G$8,'algemeene data.'!$K$4:$K$8,'algemeene data.'!$O$4:$O$8,'algemeene data.'!$S$4:$S$8,'algemeene data.'!$W$4:$W$8,'algemeene data.'!$AA$4:$AA$8,'algemeene data.'!$AE$4:$AE$8)</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7050,7 +7059,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -14121,7 +14130,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 1'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45693</v>
+        <v>45698</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -14129,7 +14138,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45697</v>
+        <v>45702</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -14162,10 +14171,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14173,10 +14182,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14202,10 +14211,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14213,10 +14222,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14283,19 +14292,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14304,27 +14313,27 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="50">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14333,24 +14342,24 @@
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45693</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45698</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14358,27 +14367,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14387,24 +14396,24 @@
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45694</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45699</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14412,27 +14421,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14441,124 +14450,124 @@
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45695</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45700</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45696</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45701</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>6.25E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45697</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45702</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14577,7 +14586,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14599,51 +14608,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14713,6 +14722,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14726,16 +14745,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14762,7 +14771,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14782,7 +14791,7 @@
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="24">
-        <v>45693</v>
+        <v>45698</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="19">
@@ -14808,7 +14817,7 @@
       <c r="C4" s="23"/>
       <c r="D4" s="24">
         <f>D2+7</f>
-        <v>45700</v>
+        <v>45705</v>
       </c>
       <c r="G4" s="20">
         <v>3</v>
@@ -14829,7 +14838,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24">
         <f>D4+7</f>
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="G6" s="20">
         <v>5</v>
@@ -14850,7 +14859,7 @@
       <c r="C8" s="23"/>
       <c r="D8" s="24">
         <f>D6+7</f>
-        <v>45714</v>
+        <v>45719</v>
       </c>
       <c r="G8" s="20">
         <v>7</v>
@@ -14871,7 +14880,7 @@
       <c r="C10" s="23"/>
       <c r="D10" s="24">
         <f>D8+7</f>
-        <v>45721</v>
+        <v>45726</v>
       </c>
       <c r="G10" s="21">
         <v>9</v>
@@ -14888,7 +14897,7 @@
       <c r="C12" s="23"/>
       <c r="D12" s="24">
         <f>D10+7</f>
-        <v>45728</v>
+        <v>45733</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14902,7 +14911,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <f>D12+7</f>
-        <v>45735</v>
+        <v>45740</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14916,7 +14925,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24">
         <f>D14+7</f>
-        <v>45742</v>
+        <v>45747</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14930,7 +14939,7 @@
       <c r="C18" s="23"/>
       <c r="D18" s="24">
         <f>D16+7</f>
-        <v>45749</v>
+        <v>45754</v>
       </c>
     </row>
   </sheetData>
@@ -14983,7 +14992,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 2'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45700</v>
+        <v>45705</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -14991,7 +15000,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45704</v>
+        <v>45709</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -15025,11 +15034,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15037,11 +15046,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15067,11 +15076,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15079,11 +15088,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15150,18 +15159,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15171,251 +15180,251 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C11" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45700</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45705</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45701</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45706</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45702</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45707</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45703</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45708</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0.125</v>
       </c>
       <c r="C19" s="27">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45704</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45709</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15434,7 +15443,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15456,51 +15465,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15573,6 +15582,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="D17:N18"/>
+    <mergeCell ref="D19:N20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:D4"/>
@@ -15582,20 +15605,6 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="D17:N18"/>
-    <mergeCell ref="D19:N20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15604,10 +15613,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E7BBA4-B6D5-4772-A472-316E42DA83E3}">
   <sheetPr codeName="Blad4"/>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15:O16"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15645,7 +15654,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 3'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -15653,7 +15662,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45711</v>
+        <v>45716</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -15687,11 +15696,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15699,11 +15708,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15729,11 +15738,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15741,11 +15750,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15812,18 +15821,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15833,249 +15842,256 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45707</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45712</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45708</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45713</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45709</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45714</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45710</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45715</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
-      <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45711</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45716</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -16091,8 +16107,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16113,55 +16129,55 @@
       <c r="M22" s="17"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -16177,7 +16193,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -16185,7 +16201,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16200,7 +16216,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -16208,7 +16224,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0.10416666666666663</v>
+        <v>0.1875</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -16228,6 +16244,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16241,16 +16267,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16300,7 +16316,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 4'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45714</v>
+        <v>45719</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -16308,7 +16324,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45718</v>
+        <v>45723</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -16342,11 +16358,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16354,11 +16370,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16384,11 +16400,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16396,11 +16412,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16467,18 +16483,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16488,168 +16504,168 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45714</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45719</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45715</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45720</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45716</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45721</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16657,47 +16673,47 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45717</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45722</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16705,24 +16721,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45718</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45723</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16741,7 +16757,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16763,51 +16779,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16834,7 +16850,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16877,6 +16893,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16890,16 +16916,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16950,7 +16966,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 5'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45721</v>
+        <v>45726</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -16958,7 +16974,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45725</v>
+        <v>45730</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -16992,10 +17008,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17003,10 +17019,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17032,10 +17048,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17043,10 +17059,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17113,18 +17129,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17134,68 +17150,68 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45721</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45726</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17203,45 +17219,45 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45722</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45727</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17249,45 +17265,45 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45723</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45728</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17295,47 +17311,47 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45724</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45729</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17343,24 +17359,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45725</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45730</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17379,7 +17395,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17401,51 +17417,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17472,7 +17488,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17515,6 +17531,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17528,16 +17554,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17600,7 +17616,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 6'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45728</v>
+        <v>45733</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -17608,7 +17624,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45732</v>
+        <v>45737</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -17642,11 +17658,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17654,11 +17670,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17684,11 +17700,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17696,11 +17712,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17767,18 +17783,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17788,72 +17804,72 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45728</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45733</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17861,47 +17877,47 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45729</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45734</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17909,47 +17925,47 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45730</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45735</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17957,47 +17973,47 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45731</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45736</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18005,24 +18021,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45732</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45737</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18041,7 +18057,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18063,51 +18079,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18134,7 +18150,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18177,6 +18193,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18190,16 +18216,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18250,7 +18266,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 7'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45735</v>
+        <v>45740</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -18258,7 +18274,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45739</v>
+        <v>45744</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -18292,11 +18308,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18304,11 +18320,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18334,11 +18350,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18346,11 +18362,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18417,18 +18433,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18438,72 +18454,72 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45735</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45740</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18511,47 +18527,47 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45736</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45741</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18559,47 +18575,47 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45737</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45742</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18607,47 +18623,47 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45738</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45743</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18655,24 +18671,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45739</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45744</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18691,7 +18707,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18713,51 +18729,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18784,7 +18800,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18827,6 +18843,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18840,16 +18866,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18912,7 +18928,7 @@
       </c>
       <c r="F2" s="7">
         <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 8'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45742</v>
+        <v>45747</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -18920,7 +18936,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45746</v>
+        <v>45751</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -18954,11 +18970,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18966,11 +18982,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18996,11 +19012,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -19008,11 +19024,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19079,18 +19095,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19100,72 +19116,72 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45742</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45747</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19173,47 +19189,47 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45743</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45748</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19221,47 +19237,47 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45744</v>
-      </c>
-      <c r="B16" s="55"/>
+        <v>45749</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19269,47 +19285,47 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45745</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45750</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19317,24 +19333,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45746</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45751</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19353,7 +19369,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19375,51 +19391,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19446,7 +19462,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.77083333333333326</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19489,6 +19505,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19502,16 +19528,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19628,7 +19644,7 @@
       </c>
       <c r="B4" s="40">
         <f>'week 1'!A12</f>
-        <v>45693</v>
+        <v>45698</v>
       </c>
       <c r="C4" s="37">
         <f>'week 1'!B11</f>
@@ -19640,7 +19656,7 @@
       </c>
       <c r="F4" s="40">
         <f>'week 2'!A12</f>
-        <v>45700</v>
+        <v>45705</v>
       </c>
       <c r="G4" s="45">
         <f>'week 2'!B11</f>
@@ -19652,7 +19668,7 @@
       </c>
       <c r="J4" s="40">
         <f>'week 3'!A12</f>
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="K4" s="45">
         <f>'week 3'!B11</f>
@@ -19663,7 +19679,7 @@
       </c>
       <c r="N4" s="40">
         <f>'week 4'!A12</f>
-        <v>45714</v>
+        <v>45719</v>
       </c>
       <c r="O4" s="45">
         <f>'week 4'!B11</f>
@@ -19674,7 +19690,7 @@
       </c>
       <c r="R4" s="40">
         <f>'week 5'!A12</f>
-        <v>45721</v>
+        <v>45726</v>
       </c>
       <c r="S4" s="45">
         <f>'week 5'!B11</f>
@@ -19685,7 +19701,7 @@
       </c>
       <c r="V4" s="40">
         <f>'week 6'!A12</f>
-        <v>45728</v>
+        <v>45733</v>
       </c>
       <c r="W4" s="45">
         <f>'week 6'!B11</f>
@@ -19696,7 +19712,7 @@
       </c>
       <c r="Z4" s="40">
         <f>'week 7'!A12</f>
-        <v>45735</v>
+        <v>45740</v>
       </c>
       <c r="AA4" s="45">
         <f>'week 7'!B11</f>
@@ -19707,7 +19723,7 @@
       </c>
       <c r="AD4" s="40">
         <f>'week 8'!A12</f>
-        <v>45742</v>
+        <v>45747</v>
       </c>
       <c r="AE4" s="37">
         <f>'week 8'!B11</f>
@@ -19720,7 +19736,7 @@
       </c>
       <c r="B5" s="41">
         <f>'week 1'!A14</f>
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="C5" s="38">
         <f>'week 1'!B13</f>
@@ -19732,7 +19748,7 @@
       </c>
       <c r="F5" s="41">
         <f>'week 2'!A14</f>
-        <v>45701</v>
+        <v>45706</v>
       </c>
       <c r="G5" s="45">
         <f>'week 2'!B13</f>
@@ -19744,7 +19760,7 @@
       </c>
       <c r="J5" s="41">
         <f>'week 3'!A14</f>
-        <v>45708</v>
+        <v>45713</v>
       </c>
       <c r="K5" s="45">
         <f>'week 3'!B13</f>
@@ -19755,7 +19771,7 @@
       </c>
       <c r="N5" s="41">
         <f>'week 4'!A14</f>
-        <v>45715</v>
+        <v>45720</v>
       </c>
       <c r="O5" s="45">
         <f>'week 4'!B13</f>
@@ -19766,7 +19782,7 @@
       </c>
       <c r="R5" s="41">
         <f>'week 5'!A14</f>
-        <v>45722</v>
+        <v>45727</v>
       </c>
       <c r="S5" s="45">
         <f>'week 5'!B13</f>
@@ -19777,7 +19793,7 @@
       </c>
       <c r="V5" s="41">
         <f>'week 6'!A14</f>
-        <v>45729</v>
+        <v>45734</v>
       </c>
       <c r="W5" s="45">
         <f>'week 6'!B13</f>
@@ -19788,7 +19804,7 @@
       </c>
       <c r="Z5" s="41">
         <f>'week 7'!A14</f>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="AA5" s="45">
         <f>'week 7'!B13</f>
@@ -19799,7 +19815,7 @@
       </c>
       <c r="AD5" s="41">
         <f>'week 8'!A14</f>
-        <v>45743</v>
+        <v>45748</v>
       </c>
       <c r="AE5" s="38">
         <f>'week 8'!B13</f>
@@ -19812,7 +19828,7 @@
       </c>
       <c r="B6" s="41">
         <f>'week 1'!A16</f>
-        <v>45695</v>
+        <v>45700</v>
       </c>
       <c r="C6" s="38">
         <f>'week 1'!B15</f>
@@ -19824,7 +19840,7 @@
       </c>
       <c r="F6" s="41">
         <f>'week 2'!A16</f>
-        <v>45702</v>
+        <v>45707</v>
       </c>
       <c r="G6" s="45">
         <f>'week 2'!B15</f>
@@ -19836,7 +19852,7 @@
       </c>
       <c r="J6" s="41">
         <f>'week 3'!A16</f>
-        <v>45709</v>
+        <v>45714</v>
       </c>
       <c r="K6" s="45">
         <f>'week 3'!B15</f>
@@ -19847,7 +19863,7 @@
       </c>
       <c r="N6" s="41">
         <f>'week 4'!A16</f>
-        <v>45716</v>
+        <v>45721</v>
       </c>
       <c r="O6" s="45">
         <f>'week 4'!B15</f>
@@ -19858,7 +19874,7 @@
       </c>
       <c r="R6" s="41">
         <f>'week 5'!A16</f>
-        <v>45723</v>
+        <v>45728</v>
       </c>
       <c r="S6" s="45">
         <f>'week 5'!B15</f>
@@ -19869,7 +19885,7 @@
       </c>
       <c r="V6" s="41">
         <f>'week 6'!A16</f>
-        <v>45730</v>
+        <v>45735</v>
       </c>
       <c r="W6" s="45">
         <f>'week 6'!B15</f>
@@ -19880,7 +19896,7 @@
       </c>
       <c r="Z6" s="41">
         <f>'week 7'!A16</f>
-        <v>45737</v>
+        <v>45742</v>
       </c>
       <c r="AA6" s="45">
         <f>'week 7'!B15</f>
@@ -19891,7 +19907,7 @@
       </c>
       <c r="AD6" s="41">
         <f>'week 8'!A16</f>
-        <v>45744</v>
+        <v>45749</v>
       </c>
       <c r="AE6" s="38">
         <f>'week 8'!B15</f>
@@ -19904,7 +19920,7 @@
       </c>
       <c r="B7" s="41">
         <f>'week 1'!A18</f>
-        <v>45696</v>
+        <v>45701</v>
       </c>
       <c r="C7" s="38">
         <f>'week 1'!B17</f>
@@ -19916,7 +19932,7 @@
       </c>
       <c r="F7" s="41">
         <f>'week 2'!A18</f>
-        <v>45703</v>
+        <v>45708</v>
       </c>
       <c r="G7" s="45">
         <f>'week 2'!B17</f>
@@ -19928,7 +19944,7 @@
       </c>
       <c r="J7" s="41">
         <f>'week 3'!A18</f>
-        <v>45710</v>
+        <v>45715</v>
       </c>
       <c r="K7" s="45">
         <f>'week 3'!B17</f>
@@ -19939,7 +19955,7 @@
       </c>
       <c r="N7" s="41">
         <f>'week 4'!A18</f>
-        <v>45717</v>
+        <v>45722</v>
       </c>
       <c r="O7" s="45">
         <f>'week 4'!B17</f>
@@ -19950,7 +19966,7 @@
       </c>
       <c r="R7" s="41">
         <f>'week 5'!A18</f>
-        <v>45724</v>
+        <v>45729</v>
       </c>
       <c r="S7" s="45">
         <f>'week 5'!B17</f>
@@ -19961,7 +19977,7 @@
       </c>
       <c r="V7" s="41">
         <f>'week 6'!A18</f>
-        <v>45731</v>
+        <v>45736</v>
       </c>
       <c r="W7" s="45">
         <f>'week 6'!B17</f>
@@ -19972,7 +19988,7 @@
       </c>
       <c r="Z7" s="41">
         <f>'week 7'!A18</f>
-        <v>45738</v>
+        <v>45743</v>
       </c>
       <c r="AA7" s="45">
         <f>'week 7'!B17</f>
@@ -19983,7 +19999,7 @@
       </c>
       <c r="AD7" s="41">
         <f>'week 8'!A18</f>
-        <v>45745</v>
+        <v>45750</v>
       </c>
       <c r="AE7" s="38">
         <f>'week 8'!B17</f>
@@ -19996,7 +20012,7 @@
       </c>
       <c r="B8" s="42">
         <f>'week 1'!A20</f>
-        <v>45697</v>
+        <v>45702</v>
       </c>
       <c r="C8" s="39">
         <f>'week 1'!B19</f>
@@ -20008,7 +20024,7 @@
       </c>
       <c r="F8" s="42">
         <f>'week 2'!A20</f>
-        <v>45704</v>
+        <v>45709</v>
       </c>
       <c r="G8" s="47">
         <f>'week 2'!B19</f>
@@ -20020,18 +20036,18 @@
       </c>
       <c r="J8" s="42">
         <f>'week 3'!A20</f>
-        <v>45711</v>
+        <v>45716</v>
       </c>
       <c r="K8" s="47">
         <f>'week 3'!B19</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="M8" s="46" t="s">
         <v>19</v>
       </c>
       <c r="N8" s="42">
         <f>'week 4'!A20</f>
-        <v>45718</v>
+        <v>45723</v>
       </c>
       <c r="O8" s="47">
         <f>'week 4'!B19</f>
@@ -20042,7 +20058,7 @@
       </c>
       <c r="R8" s="42">
         <f>'week 5'!A20</f>
-        <v>45725</v>
+        <v>45730</v>
       </c>
       <c r="S8" s="47">
         <f>'week 5'!B19</f>
@@ -20053,7 +20069,7 @@
       </c>
       <c r="V8" s="42">
         <f>'week 6'!A20</f>
-        <v>45732</v>
+        <v>45737</v>
       </c>
       <c r="W8" s="47">
         <f>'week 6'!B19</f>
@@ -20064,7 +20080,7 @@
       </c>
       <c r="Z8" s="42">
         <f>'week 7'!A20</f>
-        <v>45739</v>
+        <v>45744</v>
       </c>
       <c r="AA8" s="47">
         <f>'week 7'!B19</f>
@@ -20075,7 +20091,7 @@
       </c>
       <c r="AD8" s="42">
         <f>'week 8'!A20</f>
-        <v>45746</v>
+        <v>45751</v>
       </c>
       <c r="AE8" s="39">
         <f>'week 8'!B19</f>
@@ -20098,7 +20114,7 @@
       </c>
       <c r="C24" s="48">
         <f>'week 3'!D28</f>
-        <v>0.10416666666666663</v>
+        <v>0.1875</v>
       </c>
       <c r="D24" s="48">
         <f>'week 4'!D28</f>
@@ -20140,7 +20156,7 @@
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>0.1875</v>
+        <v>0.27083333333333337</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
@@ -20236,26 +20252,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20458,26 +20454,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20494,4 +20491,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
+++ b/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7905B295-E66C-4316-85EE-3FB6C239E756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123B44C2-B81A-4D1C-B0AD-DAEE5988EF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -206,13 +206,13 @@
     <t>projectplanning opfrissen en start VHDL state diagrammen</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Vergadering Cees en bespreken afgelopen weken</t>
   </si>
   <si>
     <t>j</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -828,6 +828,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,18 +904,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1197,7 +1197,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1421,7 +1421,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1456,19 +1456,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10/02/2025</c:v>
+                  <c:v>10-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11/02/2025</c:v>
+                  <c:v>11-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12/02/2025</c:v>
+                  <c:v>12-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13/02/2025</c:v>
+                  <c:v>13-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14/02/2025</c:v>
+                  <c:v>14-2-2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1786,7 +1786,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1821,19 +1821,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10/02/2025</c:v>
+                  <c:v>10-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11/02/2025</c:v>
+                  <c:v>11-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12/02/2025</c:v>
+                  <c:v>12-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13/02/2025</c:v>
+                  <c:v>13-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14/02/2025</c:v>
+                  <c:v>14-2-2025</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2153,7 +2153,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2188,19 +2188,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10/02/2025</c:v>
+                  <c:v>10-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11/02/2025</c:v>
+                  <c:v>11-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12/02/2025</c:v>
+                  <c:v>12-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13/02/2025</c:v>
+                  <c:v>13-2-2025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14/02/2025</c:v>
+                  <c:v>14-2-2025</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2351,19 +2351,19 @@
                     <c:strCache>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>10/02/2025</c:v>
+                        <c:v>10-2-2025</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>11/02/2025</c:v>
+                        <c:v>11-2-2025</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>12/02/2025</c:v>
+                        <c:v>12-2-2025</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>13/02/2025</c:v>
+                        <c:v>13-2-2025</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>14/02/2025</c:v>
+                        <c:v>14-2-2025</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2838,7 +2838,7 @@
               </c:extLst>
               <c:f>'algemeene data.'!$A$24:$G$24</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.375</c:v>
@@ -3216,7 +3216,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$O$24:$S$24</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.10416666666666663</c:v>
@@ -3584,7 +3584,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.10416666666666663</c:v>
@@ -4081,7 +4081,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$K$4:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4522,7 +4522,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$O$4:$O$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4833,7 +4833,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$S$4:$S$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5144,7 +5144,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$W$4:$W$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5455,7 +5455,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$AA$4:$AA$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5766,7 +5766,7 @@
             <c:numRef>
               <c:f>'algemeene data.'!$AE$4:$AE$8</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7014,7 +7014,7 @@
             <c:numRef>
               <c:f>('algemeene data.'!$C$4:$C$8,'algemeene data.'!$G$4:$G$8,'algemeene data.'!$K$4:$K$8,'algemeene data.'!$O$4:$O$8,'algemeene data.'!$S$4:$S$8,'algemeene data.'!$W$4:$W$8,'algemeene data.'!$AA$4:$AA$8,'algemeene data.'!$AE$4:$AE$8)</c:f>
               <c:numCache>
-                <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -14171,10 +14171,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14182,10 +14182,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14211,10 +14211,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14222,10 +14222,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14292,19 +14292,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14313,27 +14313,27 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="54">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14344,22 +14344,22 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14367,27 +14367,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14398,22 +14398,22 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14421,27 +14421,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14452,48 +14452,48 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14502,48 +14502,48 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>6.25E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -14552,22 +14552,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14586,7 +14586,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14608,51 +14608,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14722,16 +14722,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14745,6 +14735,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15034,11 +15034,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15046,11 +15046,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15076,11 +15076,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15088,11 +15088,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15159,18 +15159,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15180,27 +15180,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C11" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15209,48 +15209,48 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15259,48 +15259,48 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15309,48 +15309,48 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15359,48 +15359,48 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0.125</v>
       </c>
       <c r="C19" s="27">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15409,22 +15409,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15443,7 +15443,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15465,51 +15465,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15582,11 +15582,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N12"/>
+    <mergeCell ref="D13:N14"/>
     <mergeCell ref="D15:N16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
@@ -15596,15 +15600,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N12"/>
-    <mergeCell ref="D13:N14"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15616,7 +15616,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="D11" sqref="D11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15696,11 +15696,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15708,11 +15708,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15738,11 +15738,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15750,11 +15750,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15821,18 +15821,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15842,27 +15842,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15871,48 +15871,48 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15921,48 +15921,48 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -15971,48 +15971,48 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16021,48 +16021,48 @@
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16071,24 +16071,24 @@
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -16108,7 +16108,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16130,51 +16130,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -16244,16 +16244,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16267,6 +16257,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16358,11 +16358,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16370,11 +16370,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16400,11 +16400,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16412,11 +16412,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16483,18 +16483,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16504,25 +16504,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16531,46 +16531,46 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16579,46 +16579,46 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
@@ -16627,45 +16627,45 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16675,45 +16675,45 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16723,22 +16723,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16757,7 +16757,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16779,51 +16779,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16893,16 +16893,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16916,6 +16906,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17008,10 +17008,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17019,10 +17019,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17048,10 +17048,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17059,10 +17059,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17129,18 +17129,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17150,23 +17150,23 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17175,43 +17175,43 @@
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17221,43 +17221,43 @@
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17267,43 +17267,43 @@
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17313,45 +17313,45 @@
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17361,22 +17361,22 @@
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17395,7 +17395,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17417,51 +17417,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17531,16 +17531,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17554,6 +17544,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17658,11 +17658,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17670,11 +17670,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17700,11 +17700,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17712,11 +17712,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17783,18 +17783,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17804,25 +17804,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -17831,45 +17831,45 @@
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17879,45 +17879,45 @@
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17927,45 +17927,45 @@
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17975,45 +17975,45 @@
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18023,22 +18023,22 @@
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18057,7 +18057,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18079,51 +18079,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18193,16 +18193,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18216,6 +18206,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18308,11 +18308,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18320,11 +18320,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18350,11 +18350,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18362,11 +18362,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18433,18 +18433,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18454,25 +18454,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -18481,45 +18481,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18529,45 +18529,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18577,45 +18577,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18625,45 +18625,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18673,22 +18673,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18707,7 +18707,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18729,51 +18729,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18843,16 +18843,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18866,6 +18856,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18970,11 +18970,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18982,11 +18982,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -19012,11 +19012,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -19024,11 +19024,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19095,18 +19095,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19116,25 +19116,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -19143,45 +19143,45 @@
         <f>F2</f>
         <v>45747</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19191,45 +19191,45 @@
         <f>A12+1</f>
         <v>45748</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19239,45 +19239,45 @@
         <f>A14+1</f>
         <v>45749</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19287,45 +19287,45 @@
         <f>A16+1</f>
         <v>45750</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19335,22 +19335,22 @@
         <f>A18+1</f>
         <v>45751</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19369,7 +19369,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19391,51 +19391,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19505,16 +19505,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19528,6 +19518,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20252,6 +20252,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20454,27 +20474,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20491,23 +20510,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
+++ b/Documentatie/Urenverantwoording/Jesse/urenverantwoording sjabloom Jesse Ernste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project-digitale-besturing\Documentatie\Urenverantwoording\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123B44C2-B81A-4D1C-B0AD-DAEE5988EF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E66C6-0D35-428C-8408-1A8FD34BE819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="64">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -213,6 +213,27 @@
   </si>
   <si>
     <t>xx</t>
+  </si>
+  <si>
+    <t>Thuiswerken aan code</t>
+  </si>
+  <si>
+    <t>Werken aan documentatie</t>
+  </si>
+  <si>
+    <t>Werken aan code</t>
+  </si>
+  <si>
+    <t>Werken aan code op plc krijgen</t>
+  </si>
+  <si>
+    <t>Quartus werken en code</t>
+  </si>
+  <si>
+    <t>Werken aan journaal en documentatie</t>
+  </si>
+  <si>
+    <t>Werken aan testplan wasmachine</t>
   </si>
 </sst>
 </file>
@@ -828,18 +849,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,6 +913,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2850,10 +2871,10 @@
                   <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.49999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3219,19 +3240,19 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.10416666666666663</c:v>
+                  <c:v>0.27083333333333326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                  <c:v>0.31249999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.39583333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10416666666666663</c:v>
+                  <c:v>0.35416666666666652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27083333333333337</c:v>
+                  <c:v>0.35416666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4525,16 +4546,16 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.12499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4836,19 +4857,19 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.12499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.12499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333315E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7062,34 +7083,34 @@
                   <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.12499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.12499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.12499999999999994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>8.3333333333333315E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -14171,10 +14192,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14182,10 +14203,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14211,10 +14232,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14222,10 +14243,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14292,19 +14313,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14313,27 +14334,27 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="50">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14344,22 +14365,22 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14367,27 +14388,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14398,22 +14419,22 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14421,27 +14442,27 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.14583333333333337</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14452,48 +14473,48 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14502,48 +14523,48 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>6.25E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14552,22 +14573,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -14586,7 +14607,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14608,51 +14629,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -14722,6 +14743,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14735,16 +14766,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15034,11 +15055,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15046,11 +15067,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15076,11 +15097,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15088,11 +15109,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15159,18 +15180,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15180,27 +15201,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C11" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15209,48 +15230,48 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15259,48 +15280,48 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15309,48 +15330,48 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15359,48 +15380,48 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0.125</v>
       </c>
       <c r="C19" s="27">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15409,22 +15430,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -15443,7 +15464,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15465,51 +15486,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -15582,6 +15603,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="D17:N18"/>
+    <mergeCell ref="D19:N20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:D4"/>
@@ -15591,20 +15626,6 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="D17:N18"/>
-    <mergeCell ref="D19:N20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15615,7 +15636,7 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D11" sqref="D11:N12"/>
     </sheetView>
   </sheetViews>
@@ -15696,11 +15717,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15708,11 +15729,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15738,11 +15759,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15750,11 +15771,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15821,18 +15842,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15842,27 +15863,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15871,48 +15892,48 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15921,48 +15942,48 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C15" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15971,48 +15992,48 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16021,48 +16042,48 @@
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16071,22 +16092,22 @@
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
       <c r="Q20" t="s">
         <v>55</v>
       </c>
@@ -16108,7 +16129,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16130,51 +16151,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -16244,6 +16265,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16257,16 +16288,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16278,7 +16299,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="D19" sqref="D19:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16358,11 +16379,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16370,11 +16391,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16400,11 +16421,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16412,11 +16433,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16483,18 +16504,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16504,25 +16525,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16531,46 +16554,48 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16579,46 +16604,48 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+        <v>0.4375</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16627,45 +16654,47 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16675,45 +16704,47 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16723,22 +16754,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -16757,7 +16788,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16779,51 +16810,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -16850,7 +16881,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.85416666666666663</v>
+        <v>1.1875</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16873,7 +16904,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -16893,6 +16924,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16906,16 +16947,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16926,8 +16957,8 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17008,10 +17039,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17019,10 +17050,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17048,10 +17079,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17059,10 +17090,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17129,18 +17160,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17150,23 +17181,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17175,43 +17210,47 @@
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="26">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17221,43 +17260,47 @@
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.4375</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17267,43 +17310,47 @@
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="26">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17313,45 +17360,47 @@
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17361,22 +17410,22 @@
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -17395,7 +17444,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17417,51 +17466,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -17488,7 +17537,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.85416666666666663</v>
+        <v>1.6875</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17511,7 +17560,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -17531,6 +17580,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17544,16 +17603,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17658,11 +17707,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17670,11 +17719,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17700,11 +17749,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17712,11 +17761,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17783,18 +17832,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17804,25 +17853,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17831,45 +17880,45 @@
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17879,45 +17928,45 @@
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17927,45 +17976,45 @@
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17975,45 +18024,45 @@
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18023,22 +18072,22 @@
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18057,7 +18106,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18079,51 +18128,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18150,7 +18199,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.85416666666666663</v>
+        <v>1.6875</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18193,6 +18242,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18206,16 +18265,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18308,11 +18357,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18320,11 +18369,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18350,11 +18399,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18362,11 +18411,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18433,18 +18482,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18454,25 +18503,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -18481,45 +18530,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18529,45 +18578,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18577,45 +18626,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18625,45 +18674,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18673,22 +18722,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -18707,7 +18756,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18729,51 +18778,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -18800,7 +18849,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.85416666666666663</v>
+        <v>1.6875</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18843,6 +18892,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18856,16 +18915,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18970,11 +19019,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Jesse</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18982,11 +19031,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL Stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -19012,11 +19061,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -19024,11 +19073,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19095,18 +19144,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19116,25 +19165,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -19143,45 +19192,45 @@
         <f>F2</f>
         <v>45747</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19191,45 +19240,45 @@
         <f>A12+1</f>
         <v>45748</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19239,45 +19288,45 @@
         <f>A14+1</f>
         <v>45749</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19287,45 +19336,45 @@
         <f>A16+1</f>
         <v>45750</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19335,22 +19384,22 @@
         <f>A18+1</f>
         <v>45751</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -19369,7 +19418,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19391,51 +19440,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -19462,7 +19511,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.85416666666666663</v>
+        <v>1.6875</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19505,6 +19554,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19518,16 +19577,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19683,7 +19732,7 @@
       </c>
       <c r="O4" s="45">
         <f>'week 4'!B11</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="Q4" s="44" t="s">
         <v>15</v>
@@ -19694,7 +19743,7 @@
       </c>
       <c r="S4" s="45">
         <f>'week 5'!B11</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="U4" s="44" t="s">
         <v>15</v>
@@ -19775,7 +19824,7 @@
       </c>
       <c r="O5" s="45">
         <f>'week 4'!B13</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q5" s="44" t="s">
         <v>16</v>
@@ -19786,7 +19835,7 @@
       </c>
       <c r="S5" s="45">
         <f>'week 5'!B13</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="U5" s="44" t="s">
         <v>16</v>
@@ -19867,7 +19916,7 @@
       </c>
       <c r="O6" s="45">
         <f>'week 4'!B15</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q6" s="44" t="s">
         <v>17</v>
@@ -19878,7 +19927,7 @@
       </c>
       <c r="S6" s="45">
         <f>'week 5'!B15</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="U6" s="44" t="s">
         <v>17</v>
@@ -19959,7 +20008,7 @@
       </c>
       <c r="O7" s="45">
         <f>'week 4'!B17</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="Q7" s="44" t="s">
         <v>18</v>
@@ -19970,7 +20019,7 @@
       </c>
       <c r="S7" s="45">
         <f>'week 5'!B17</f>
-        <v>0</v>
+        <v>0.12499999999999994</v>
       </c>
       <c r="U7" s="44" t="s">
         <v>18</v>
@@ -20062,7 +20111,7 @@
       </c>
       <c r="S8" s="47">
         <f>'week 5'!B19</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="U8" s="46" t="s">
         <v>19</v>
@@ -20118,11 +20167,11 @@
       </c>
       <c r="D24" s="48">
         <f>'week 4'!D28</f>
-        <v>0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="E24" s="48">
         <f>'week 5'!D28</f>
-        <v>0</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="F24" s="48">
         <f>'week 6'!D28</f>
@@ -20140,23 +20189,23 @@
       <c r="M24" s="36"/>
       <c r="O24" s="36">
         <f>SUM(C4,G4,K4,O4,S4,W4,AA4,AE4)</f>
-        <v>0.10416666666666663</v>
+        <v>0.27083333333333326</v>
       </c>
       <c r="P24" s="36">
         <f>SUM(C5,G5,K5,O5,S5,W5,AA5,AE5)</f>
-        <v>0.125</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="Q24" s="36">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6,AE6)</f>
-        <v>0.25</v>
+        <v>0.39583333333333337</v>
       </c>
       <c r="R24" s="36">
         <f>SUM(C7,G7,K7,O7,S7,W7,AA7,AE7)</f>
-        <v>0.10416666666666663</v>
+        <v>0.35416666666666652</v>
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>0.27083333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
@@ -20252,26 +20301,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20474,26 +20503,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20510,4 +20540,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>